--- a/pr_test.xlsx
+++ b/pr_test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmnm444/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmnm444/Desktop/SGT/excel_pr/excel-pr-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4DC9EF-46AF-6C48-97FB-CE5BFD43AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3611D7-DD69-E945-B007-A69A613A4E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{807A1F94-0471-5C4F-A1AC-06476DC6008D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,8 +487,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>800/2*3</f>
-        <v>1200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,14 +504,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A14" ca="1" si="0">TODAY()</f>
+        <f t="shared" ref="A4" ca="1" si="0">TODAY()</f>
         <v>45824</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="1">800/2*3</f>
+        <f t="shared" ref="C4" si="1">800/2*3</f>
         <v>1200</v>
       </c>
     </row>
@@ -524,21 +523,20 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C13" si="2">800/2*4</f>
+        <f t="shared" ref="C5" si="2">800/2*4</f>
         <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A14" ca="1" si="3">TODAY()</f>
+        <f t="shared" ref="A6" ca="1" si="3">TODAY()</f>
         <v>45824</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="4">800/2*3</f>
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -549,20 +547,20 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C13" si="5">800/2*4</f>
+        <f t="shared" ref="C7" si="4">800/2*4</f>
         <v>1600</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A14" ca="1" si="6">TODAY()</f>
+        <f t="shared" ref="A8" ca="1" si="5">TODAY()</f>
         <v>45824</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C13" si="7">800/2*3</f>
+        <f t="shared" ref="C8" si="6">800/2*3</f>
         <v>1200</v>
       </c>
     </row>
@@ -574,20 +572,20 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C13" si="8">800/2*4</f>
+        <f t="shared" ref="C9" si="7">800/2*4</f>
         <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A14" ca="1" si="9">TODAY()</f>
+        <f t="shared" ref="A10" ca="1" si="8">TODAY()</f>
         <v>45824</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C13" si="10">800/2*3</f>
+        <f t="shared" ref="C10" si="9">800/2*3</f>
         <v>1200</v>
       </c>
     </row>
@@ -599,20 +597,20 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C13" si="11">800/2*4</f>
+        <f t="shared" ref="C11" si="10">800/2*4</f>
         <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A14" ca="1" si="12">TODAY()</f>
+        <f t="shared" ref="A12" ca="1" si="11">TODAY()</f>
         <v>45824</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C13" si="13">800/2*3</f>
+        <f t="shared" ref="C12" si="12">800/2*3</f>
         <v>1200</v>
       </c>
     </row>
@@ -624,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="14">800/2*4</f>
+        <f t="shared" ref="C13" si="13">800/2*4</f>
         <v>1600</v>
       </c>
     </row>
